--- a/TemperatureChangeOverTheYears1948-2003.xlsx
+++ b/TemperatureChangeOverTheYears1948-2003.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Winter</t>
   </si>
@@ -69,159 +69,14 @@
     <t>Nova Scotia</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>+1°C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>+2°C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>+0°C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>+1,5°C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2°C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>+0,5°C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>+3°C</t>
-    </r>
+    <t>°C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,17 +94,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -322,6 +166,585 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$3:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Northwest Territories</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Nunavut</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Yukon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spring</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$3:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Northwest Territories</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Nunavut</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Yukon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$3:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Northwest Territories</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Nunavut</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Yukon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$3:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Autumn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$3:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>British Columbia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manitoba</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Brunswick</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Newfoundland and Labrador</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Northwest Territories</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nova Scotia</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Nunavut</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ontario</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Prince Edward Island</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Quebec</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Saskatchewan</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Yukon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$3:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="163706368"/>
+        <c:axId val="188630144"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="163706368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="188630144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="188630144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163706368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -611,15 +1034,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -641,221 +1065,278 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
+      <c r="C3" s="3">
+        <f>SUM(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <f>SUM(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <f>SUM(0,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:D5" si="0">SUM(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <f>SUM(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <f>SUM(0,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
+      <c r="C6" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <f>SUM(0,1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="3">
+        <f>SUM(0,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
+      <c r="C7" s="3">
+        <f>SUM(0,-2)</f>
+        <v>-2</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUM(0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f>SUM(0,1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:D8" si="1">SUM(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
+      <c r="C9" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <f>SUM(0,1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="3">
+        <f>SUM(0,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
+      <c r="C10" s="3">
+        <f>SUM(0,-2)</f>
+        <v>-2</v>
+      </c>
+      <c r="D10" s="3">
+        <f>SUM(0,0.5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <f>SUM(0,2)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>19</v>
+      <c r="C11" s="3">
+        <f>SUM(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11" si="2">SUM(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <f>SUM(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <f>SUM(0,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
+      <c r="C12" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <f>SUM(0,1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:F15" si="3">SUM(0,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
+      <c r="C13" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <f>SUM(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>19</v>
+      <c r="C14" s="3">
+        <f t="shared" ref="C14:D15" si="4">SUM(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <f>SUM(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>19</v>
+      <c r="C15" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUM(0,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -864,6 +1345,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/TemperatureChangeOverTheYears1948-2003.xlsx
+++ b/TemperatureChangeOverTheYears1948-2003.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Winter</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>°C</t>
+  </si>
+  <si>
+    <t>Judging by this data, we draw a conclusion that the overall temperature rises in all provinces and territoires in Canada. We can assume that the temperature will continue rising.</t>
   </si>
 </sst>
 </file>
@@ -145,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +157,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,12 +661,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="163706368"/>
-        <c:axId val="188630144"/>
+        <c:axId val="182246016"/>
+        <c:axId val="182387072"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="163706368"/>
+        <c:axId val="182246016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -671,7 +675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188630144"/>
+        <c:crossAx val="182387072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -679,7 +683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188630144"/>
+        <c:axId val="182387072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163706368"/>
+        <c:crossAx val="182246016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1034,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,6 +1341,11 @@
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
